--- a/food_data.xlsx
+++ b/food_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,52 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>가게 이름</t>
+          <t>food_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>operating_hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>menu_name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>menu_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>menu_img</t>
         </is>
       </c>
     </row>
@@ -446,6 +491,19 @@
           <t>은화수식당 아산호서대점</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.F72A231DBFB1D89113970F59E0D09FC8.d.92DEB8112822C28C4759EF7FEF1E39A2.e.393")&gt;</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +511,19 @@
           <t>홍은이 닭지그리</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.D1FF66BB226FE6434E3FD24DEB2A5AE6.d.DD680BFB881FB0AC9C4BC0AC068CB692.e.432")&gt;</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +531,19 @@
           <t>버거운버거 아산호서대점</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.6F26768A59E1AA9C68B2DC277D1D196D.d.B3FD031A650CDB02DC4BBBBEAA921538.e.544")&gt;</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,48 +551,139 @@
           <t>곱창1번지</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.BCEF3280FA60E83C94E140702429058F.d.3076A2C4AA284F5D86FAEED055284244.e.583")&gt;</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>메가MGC커피 아산호서대점</t>
-        </is>
-      </c>
+          <t>한솥도시락 아산호서대점</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.F6096DF49123A8CA4EED58DE6F27ACA0.d.9F3D070CD80795982171E626A5765BA2.e.607")&gt;</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>멕시카나치킨 아산호서대점</t>
-        </is>
-      </c>
+          <t>메가MGC커피 아산호서대점</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.ED243782E2D05A98833AC8E7448AA039.d.C81FB22D187518688E624A15822211BA.e.712")&gt;</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>라화쿵부 아산호서대점</t>
-        </is>
-      </c>
+          <t>멕시카나치킨 아산호서대점</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.E53EDA65AA1A5856AECE9A466A2A4215.d.8B26B43B8DEA85FE3A807C85E85065B6.e.768")&gt;</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>한솥도시락 아산호서대점</t>
-        </is>
-      </c>
+          <t>김밥마을</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.AE7CEADA767B00B5951E3B353AFCC066.d.CEC0AB75A8FA5157D6AC5675DCC8C36A.e.799")&gt;</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>커피사피엔스 아산호서대점</t>
-        </is>
-      </c>
+          <t>라화쿵부 아산호서대점</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.5DA104F8AEEBA8662B7197A1CA4CB841.d.944538D4F3F14D35E867313FA27421AA.e.827")&gt;</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>김밥마을</t>
-        </is>
-      </c>
+          <t>커피사피엔스 아산호서대점</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.4045A7C2B8853B41DA5BFA2FE488F640.d.931685E04318BE651508D2F7D84CCCEF.e.853")&gt;</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -516,6 +691,19 @@
           <t>디스틴컵</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.43B698DBC47C8664E05CD836FC05CDC6.d.6E2BFD773FB2D4DFC2CC5FB346595A42.e.879")&gt;</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -523,6 +711,19 @@
           <t>행컵 호서대(아산)점</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.E30172837E13380986C9F5314CEFC470.d.EAD28737B39C4290F4EEA4CDB4831472.e.941")&gt;</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -530,6 +731,19 @@
           <t>마포집</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.85089CBBA1DD953E228198E8FE59B9CF.d.4CCC37910CBD97C789A02C572A59A634.e.978")&gt;</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -537,20 +751,59 @@
           <t>브링웰피자 아산호서대점</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.987404D1BD90896F21C7CD9CCC26CDAE.d.05FC4A15B06737B8BB9E5108368139A3.e.999")&gt;</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>카페호아성</t>
-        </is>
-      </c>
+          <t>블루포트 호서대아산교직원회관점</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.C4EE2DDAA6C0ED969F766DF95E504F7F.d.7F6ACD182B07AD75D0BEA3231A9D6DB6.e.1061")&gt;</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>블루포트 호서대아산교직원회관점</t>
-        </is>
-      </c>
+          <t>카페호아성</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.968ED2EBD1179D55A17124AEA84A552D.d.5BEEEB660E5A1CADEF552F618E800FA8.e.1097")&gt;</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -558,34 +811,99 @@
           <t>맘스터치 호서대점</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.D168E7A06803C7B4B133C19D76004C08.d.F58000D9CC6EFF0D19EA88E323FCB8A7.e.1117")&gt;</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>빽다방 아산호서대점</t>
-        </is>
-      </c>
+          <t>도스마스 호서대점</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.5CC661B6A667A1559637B14F19D753F9.d.75BB0ED0A5E8DFC648EF66679C4C9667.e.1141")&gt;</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>촌댁맥주 호서대학교점</t>
-        </is>
-      </c>
+          <t>땡초우동 아산호서대점</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.143C22A9983F1F235C26EAC051240664.d.746143F96E979EE6D753615AFAB99BBC.e.1166")&gt;</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>브로시스</t>
-        </is>
-      </c>
+          <t>촌댁맥주 호서대학교점</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.17622B5C74AC0E75CEB9539416DAF70E.d.FE56F96F3660811CFD5F0EF6F3943E4E.e.1183")&gt;</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>땡초우동 아산호서대점</t>
-        </is>
-      </c>
+          <t>브로시스</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.9811701F3EC73203298E71EFDC0B2FB3.d.2A181321208345B41020F67D2AB1B668.e.1218")&gt;</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -593,41 +911,119 @@
           <t>미스터라멘 호서대점</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.93A6DDBC085301D1DA82D21226EEBC84.d.265165F4110CF3EE1F36C0CF7AC741FE.e.1240")&gt;</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>도스마스 호서대점</t>
-        </is>
-      </c>
+          <t>빽다방 아산호서대점</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.CE33756BFB82D955ADA1568636106E5F.d.6C8EB6B50F4F9CED99FB590AB66CD6CD.e.1286")&gt;</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>금룡</t>
-        </is>
-      </c>
+          <t>카페드림 호서대학교 강석규교육관점</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.1F68C5A4D6CB32B66F3A9725E026F6D8.d.9DE6ABEF2BE5F64E751E456A35C2CA87.e.1364")&gt;</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>카페드림 호서대학교 강석규교육관점</t>
-        </is>
-      </c>
+          <t>시골집</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.1D6B769FC66CB70DC145A993BB23637A.d.D2CDDD7619AC607EB90A192D2053D95B.e.1413")&gt;</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>에브리</t>
-        </is>
-      </c>
+          <t>금룡</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.18950598AF97F15F57D2C050980ECD1D.d.94576E394776A57911FF0222FF74EB51.e.1440")&gt;</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>시골집</t>
-        </is>
-      </c>
+          <t>에브리</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.116C961EFD044AF0B3C545D709172339.d.F274489616EB21B6926C6AE8FF94D28B.e.1479")&gt;</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -635,6 +1031,19 @@
           <t>술집호아성</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.8A27CAD80D44BAFA6A107DDD3F1C80F2.d.A2A7BDD87D4C09A626285E0C49575E38.e.1511")&gt;</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -642,20 +1051,59 @@
           <t>철수네고기마당</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.9F972719AC7FD09AA88001E9BED76F98.d.874E88D6FDE50BE4F41BEAA0EE43162E.e.1533")&gt;</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>봉구스밥버거 호서대점</t>
-        </is>
-      </c>
+          <t>알콜사무소</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.D8FBE3E24F3CDE3FA7CF280A16F39DA0.d.590F2AA2B58BB8C435BD467998A3829B.e.1553")&gt;</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>알콜사무소</t>
-        </is>
-      </c>
+          <t>봉구스밥버거 호서대점</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.9F4CC7F76E9F0BAF03B7F2063CE5DE4A.d.AC22AD4FF2474380B2A5AA611D6B025A.e.1575")&gt;</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -663,6 +1111,19 @@
           <t>마슬랜치킨 호서점</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.76DE016D9EAB8E73B263030830FE0835.d.51D7EFE1BD1E459EC715F91536BE5D2C.e.1594")&gt;</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -670,6 +1131,19 @@
           <t>동막골</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.A2AFF3E442090A689FC4B2B055CEB05E.d.D3781112EC26FBA63DA3D4AA20FFAC36.e.1617")&gt;</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -677,13 +1151,39 @@
           <t>역전할머니맥주 아산호서대점</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.4102ED420392A5C66FA7BC1C4FEADE6D.d.17D82D0991866DE6D606299670F26C36.e.1708")&gt;</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>모이세</t>
-        </is>
-      </c>
+          <t>꾸이한끼 호서대캠퍼스점</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.11C345CE1249888E351A64FB48F1B120.d.7607FF2636822CFB49CCE81DD3D129F8.e.1729")&gt;</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -691,20 +1191,59 @@
           <t>YOLO</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.3F6F6A07F18687227F81E65C4344663D.d.69989DA33F60A23883F11DBED34100BA.e.1767")&gt;</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>꾸이한끼 호서대캠퍼스점</t>
-        </is>
-      </c>
+          <t>미스터포 호서대점</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.007FA414C5ABB0F3836AE5DD18B415E6.d.441DD3DDC643F4C9E8487C2B2EA6AE51.e.1785")&gt;</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>미스터포 호서대점</t>
-        </is>
-      </c>
+          <t>모이세</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.5FDC243DA1DEA2CAF07CC887F94A27CC.d.F617A316AB63937BD35C2C84A817A6E8.e.1809")&gt;</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -712,6 +1251,19 @@
           <t>일미닭갈비파전호서대점</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.BC5D5EDFF1F7B1C594D642A64562532B.d.85A85657D5AE684A93DB62CC67B5ADB6.e.1836")&gt;</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -719,6 +1271,19 @@
           <t>용우동 아산호서대점</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.BE13B440B7C159A49BDD09C70617E0AE.d.F027D25CC4AD67F03807B0CAA986DA61.e.1867")&gt;</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -726,6 +1291,19 @@
           <t>화덕갈매기아산호서대점</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.D06CC0861257771BA27DC0BA1540EB06.d.F6F2A83019C3F282030EF5500E7D9E55.e.1942")&gt;</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -733,6 +1311,19 @@
           <t>시골식당</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.736A0D209A78FEB1501E4C8539D7C66B.d.BD5B01D89E7BFA1F675E364D16048995.e.1970")&gt;</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -740,6 +1331,19 @@
           <t>팬도로시 호서대점</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.1599B93EE80CF57F550BCB0DAFD0239D.d.1D2679D1C6D57086F450F80B6EE5EB8F.e.1991")&gt;</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -747,6 +1351,19 @@
           <t>추카추카</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.92BE56CC917ECACC041C8AF223444E50.d.9B543C765D4F50C770EB000BCC396925.e.2040")&gt;</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -754,6 +1371,19 @@
           <t>전가방</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.2CD9AADEC2A0C295454143ECA0ADA676.d.71276B62CFB2123E8613619EB97CA675.e.2066")&gt;</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -761,6 +1391,19 @@
           <t>태주호프</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.90D7CC21C65F633D743FAEF8EF367592.d.730B935B0B63DBFCB1C2F8D870748807.e.2089")&gt;</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -768,6 +1411,19 @@
           <t>진보</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.EAE54294703DDBC261CB247DE68DAFD9.d.9BEABBC19151EDA8168D88A84D451068.e.2111")&gt;</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -775,13 +1431,39 @@
           <t>제너시스에프앤비 호서대점</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.1208DD7D29E71C8C4F6B41D1B2C48EB6.d.68439AD289F983B0AD3E053F3D6FD1DD.e.2224")&gt;</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>공차 아산호서대점</t>
-        </is>
-      </c>
+          <t>카페차이 에그셀런트 호서대점</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.430B5CF59A497A6E1C99266BBBE0040C.d.B600CE717139ECFB83B514A68D619F69.e.2619")&gt;</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -789,6 +1471,59 @@
           <t>공차 아산호서대점</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.422CCB53A79A2E0BC60ADE44662E99EA.d.57D7231B03A857DE2D98C98DF01241FE.e.2645")&gt;</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>카페차이 에그셀런트 호서대점</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.7CB98383F090245EE088C65A2EFB4354.d.4119CA360B6C68424455299187126D2B.e.2938")&gt;</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>공차 아산호서대점</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="41f56aebc7ccee111f5b4c513976271f", element="f.CD20680A5CB7DFC085761F1D4E11D28C.d.EC865F10F65796BCBE6E089E8003DA91.e.2964")&gt;</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
